--- a/public/template/template_student_quit.xlsx
+++ b/public/template/template_student_quit.xlsx
@@ -16,7 +16,7 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã sv</t>
+    <t>Mã SV</t>
   </si>
   <si>
     <t>Ghi chú</t>
@@ -104,12 +104,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -340,111 +343,111 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>543738.0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>543741.0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>543229.0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>543247.0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5.0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>543289.0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>543732.0</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>576754.0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>596697.0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
